--- a/excel/次数统计.xlsx
+++ b/excel/次数统计.xlsx
@@ -1,43 +1,385 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="merge" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+  <si>
+    <t>2019-01-02</t>
+  </si>
+  <si>
+    <t>2019-01-03</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ " numFmtId="164"/>
+    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="165"/>
+    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="166"/>
+    <numFmt formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ " numFmtId="167"/>
+  </numFmts>
+  <fonts count="20">
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
+  <fills count="33">
+    <fill>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -45,26 +387,211 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="49">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="167"/>
+    <xf borderId="0" fillId="13" fontId="2" numFmtId="0"/>
+    <xf borderId="5" fillId="22" fontId="16" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165"/>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="8" fontId="7" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="166"/>
+    <xf borderId="0" fillId="18" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0"/>
+    <xf borderId="4" fillId="12" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="26" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0"/>
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="0"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="25" fontId="1" numFmtId="0"/>
+    <xf borderId="6" fillId="0" fontId="11" numFmtId="0"/>
+    <xf borderId="0" fillId="28" fontId="1" numFmtId="0"/>
+    <xf borderId="8" fillId="17" fontId="18" numFmtId="0"/>
+    <xf borderId="5" fillId="17" fontId="10" numFmtId="0"/>
+    <xf borderId="3" fillId="11" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="16" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0"/>
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0"/>
+    <xf borderId="7" fillId="0" fontId="17" numFmtId="0"/>
+    <xf borderId="0" fillId="32" fontId="19" numFmtId="0"/>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="27" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="15" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="24" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="14" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="21" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="31" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="10" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="30" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="20" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="23" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="9" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="19" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="29" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
+    <cellStyle builtinId="20" name="输入" xfId="3"/>
+    <cellStyle builtinId="4" name="货币" xfId="4"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
+    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
+    <cellStyle builtinId="27" name="差" xfId="7"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
+    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
+    <cellStyle builtinId="8" name="超链接" xfId="10"/>
+    <cellStyle builtinId="5" name="百分比" xfId="11"/>
+    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
+    <cellStyle builtinId="10" name="注释" xfId="13"/>
+    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
+    <cellStyle builtinId="15" name="标题" xfId="17"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
+    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
+    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
+    <cellStyle builtinId="21" name="输出" xfId="24"/>
+    <cellStyle builtinId="22" name="计算" xfId="25"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
+    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
+    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
+    <cellStyle builtinId="25" name="汇总" xfId="30"/>
+    <cellStyle builtinId="26" name="好" xfId="31"/>
+    <cellStyle builtinId="28" name="适中" xfId="32"/>
+    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
+    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
+    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
+    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
+    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
+    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
+    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
+    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
+    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -111,7 +638,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -146,7 +673,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -320,23 +847,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>